--- a/dbscan_clustering.xlsx
+++ b/dbscan_clustering.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/itayl_campus_technion_ac_il/Documents/Desktop/Technion/behar lab/GRB_Clustering/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_01EFC2EF1F23050E97AD4FF0F56A23C738FCB61D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FF94EF-A768-454C-9716-009CD13C98EE}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,21 +78,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +122,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +156,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -205,10 +190,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -381,17 +365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW465"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AN437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40">
       <c r="B1" s="1">
         <v>-1</v>
       </c>
@@ -509,35 +490,8 @@
       <c r="AN1" s="1">
         <v>37</v>
       </c>
-      <c r="AO1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -551,142 +505,115 @@
         <v>100131730</v>
       </c>
       <c r="E2">
-        <v>100224112</v>
+        <v>100322045</v>
       </c>
       <c r="F2">
-        <v>100322045</v>
+        <v>100517154</v>
       </c>
       <c r="G2">
-        <v>100414097</v>
+        <v>100522157</v>
       </c>
       <c r="H2">
-        <v>100511035</v>
+        <v>101126198</v>
       </c>
       <c r="I2">
-        <v>100517072</v>
+        <v>101227406</v>
       </c>
       <c r="J2">
-        <v>100604287</v>
+        <v>110402009</v>
       </c>
       <c r="K2">
-        <v>101126198</v>
+        <v>110706977</v>
       </c>
       <c r="L2">
-        <v>101227406</v>
+        <v>110709463</v>
       </c>
       <c r="M2">
-        <v>110402009</v>
+        <v>110710954</v>
       </c>
       <c r="N2">
-        <v>110706977</v>
+        <v>111024722</v>
       </c>
       <c r="O2">
-        <v>110710954</v>
+        <v>111109873</v>
       </c>
       <c r="P2">
-        <v>110904531</v>
+        <v>120328268</v>
       </c>
       <c r="Q2">
-        <v>111109873</v>
+        <v>120830212</v>
       </c>
       <c r="R2">
-        <v>120119170</v>
+        <v>130523198</v>
       </c>
       <c r="S2">
-        <v>120727681</v>
+        <v>130612456</v>
       </c>
       <c r="T2">
-        <v>120830212</v>
+        <v>140108721</v>
       </c>
       <c r="U2">
-        <v>120919052</v>
+        <v>140115899</v>
       </c>
       <c r="V2">
-        <v>130331566</v>
+        <v>140506880</v>
       </c>
       <c r="W2">
-        <v>130523198</v>
+        <v>140606133</v>
       </c>
       <c r="X2">
-        <v>130612456</v>
+        <v>150902733</v>
       </c>
       <c r="Y2">
-        <v>130623790</v>
+        <v>151107851</v>
       </c>
       <c r="Z2">
-        <v>130715906</v>
+        <v>151120349</v>
       </c>
       <c r="AA2">
-        <v>130815660</v>
+        <v>151227218</v>
       </c>
       <c r="AB2">
-        <v>140108721</v>
+        <v>160303201</v>
       </c>
       <c r="AC2">
-        <v>140115899</v>
+        <v>160605847</v>
       </c>
       <c r="AD2">
-        <v>140430716</v>
+        <v>160821857</v>
       </c>
       <c r="AE2">
-        <v>140506880</v>
+        <v>170711931</v>
       </c>
       <c r="AF2">
-        <v>140606133</v>
+        <v>170912273</v>
       </c>
       <c r="AG2">
-        <v>141004973</v>
+        <v>170915161</v>
       </c>
       <c r="AH2">
-        <v>150118409</v>
+        <v>171022885</v>
       </c>
       <c r="AI2">
-        <v>151107851</v>
+        <v>180330891</v>
       </c>
       <c r="AJ2">
-        <v>151120349</v>
+        <v>180416924</v>
       </c>
       <c r="AK2">
-        <v>170614486</v>
+        <v>180804931</v>
       </c>
       <c r="AL2">
-        <v>170912273</v>
+        <v>190304818</v>
       </c>
       <c r="AM2">
-        <v>170915161</v>
+        <v>190415173</v>
       </c>
       <c r="AN2">
-        <v>180210517</v>
-      </c>
-      <c r="AO2">
-        <v>180330891</v>
-      </c>
-      <c r="AP2">
-        <v>180411546</v>
-      </c>
-      <c r="AQ2">
-        <v>190310398</v>
-      </c>
-      <c r="AR2">
-        <v>190324947</v>
-      </c>
-      <c r="AS2">
-        <v>190415173</v>
-      </c>
-      <c r="AT2">
-        <v>200711461</v>
-      </c>
-      <c r="AU2">
-        <v>210807687</v>
-      </c>
-      <c r="AV2">
         <v>211124104</v>
       </c>
-      <c r="AW2">
-        <v>211217295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -700,147 +627,120 @@
         <v>100225580</v>
       </c>
       <c r="E3">
-        <v>170207906</v>
+        <v>150724782</v>
       </c>
       <c r="F3">
-        <v>150724782</v>
+        <v>120130699</v>
       </c>
       <c r="G3">
-        <v>100517154</v>
+        <v>100615083</v>
       </c>
       <c r="H3">
-        <v>190727846</v>
+        <v>120227725</v>
       </c>
       <c r="I3">
-        <v>170711931</v>
+        <v>230723488</v>
       </c>
       <c r="J3">
-        <v>190805199</v>
+        <v>141004973</v>
       </c>
       <c r="K3">
-        <v>120227725</v>
+        <v>90520876</v>
       </c>
       <c r="L3">
-        <v>230723488</v>
+        <v>91003191</v>
       </c>
       <c r="M3">
-        <v>171230048</v>
+        <v>130829672</v>
       </c>
       <c r="N3">
-        <v>90520876</v>
+        <v>150430015</v>
       </c>
       <c r="O3">
-        <v>130829672</v>
+        <v>180623849</v>
       </c>
       <c r="P3">
-        <v>170610689</v>
+        <v>130609902</v>
       </c>
       <c r="Q3">
-        <v>180623849</v>
+        <v>151212064</v>
       </c>
       <c r="R3">
-        <v>130517781</v>
+        <v>220305676</v>
       </c>
       <c r="S3">
-        <v>180305393</v>
+        <v>190205938</v>
       </c>
       <c r="T3">
-        <v>151212064</v>
+        <v>190829830</v>
       </c>
       <c r="U3">
-        <v>140721336</v>
+        <v>171119992</v>
       </c>
       <c r="V3">
-        <v>201229639</v>
+        <v>161015710</v>
       </c>
       <c r="W3">
-        <v>220305676</v>
+        <v>170906039</v>
       </c>
       <c r="X3">
-        <v>190205938</v>
+        <v>190324947</v>
       </c>
       <c r="Y3">
-        <v>90720276</v>
+        <v>171117515</v>
       </c>
       <c r="Z3">
-        <v>190919764</v>
+        <v>180605458</v>
       </c>
       <c r="AA3">
-        <v>160605847</v>
+        <v>200716060</v>
       </c>
       <c r="AB3">
-        <v>190829830</v>
+        <v>210704684</v>
       </c>
       <c r="AC3">
-        <v>171119992</v>
+        <v>220305481</v>
       </c>
       <c r="AD3">
-        <v>190218330</v>
+        <v>221023862</v>
       </c>
       <c r="AE3">
-        <v>161015710</v>
+        <v>230614385</v>
       </c>
       <c r="AF3">
-        <v>170906039</v>
+        <v>210821320</v>
       </c>
       <c r="AG3">
-        <v>170222209</v>
+        <v>211102587</v>
       </c>
       <c r="AH3">
-        <v>190531840</v>
+        <v>230628849</v>
       </c>
       <c r="AI3">
-        <v>171117515</v>
+        <v>200924284</v>
       </c>
       <c r="AJ3">
-        <v>181215110</v>
+        <v>80916009</v>
       </c>
       <c r="AK3">
-        <v>180731891</v>
+        <v>220512211</v>
       </c>
       <c r="AL3">
-        <v>210821320</v>
+        <v>200711461</v>
       </c>
       <c r="AM3">
-        <v>211102587</v>
+        <v>210531500</v>
       </c>
       <c r="AN3">
-        <v>220304228</v>
-      </c>
-      <c r="AO3">
-        <v>191027638</v>
-      </c>
-      <c r="AP3">
-        <v>191129141</v>
-      </c>
-      <c r="AQ3">
-        <v>90828099</v>
-      </c>
-      <c r="AR3">
-        <v>220511571</v>
-      </c>
-      <c r="AS3">
-        <v>210531500</v>
-      </c>
-      <c r="AT3">
-        <v>231118720</v>
-      </c>
-      <c r="AU3">
-        <v>90516853</v>
-      </c>
-      <c r="AV3">
         <v>230524239</v>
       </c>
-      <c r="AW3">
-        <v>230110649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>100619015</v>
+        <v>100224112</v>
       </c>
       <c r="C4">
         <v>130518580</v>
@@ -849,4864 +749,4778 @@
         <v>100324172</v>
       </c>
       <c r="F4">
-        <v>151227218</v>
-      </c>
-      <c r="G4">
-        <v>100926595</v>
-      </c>
-      <c r="H4">
-        <v>91030828</v>
-      </c>
-      <c r="I4">
-        <v>230614385</v>
-      </c>
-      <c r="K4">
-        <v>210204270</v>
-      </c>
-      <c r="L4">
-        <v>81122520</v>
+        <v>130409960</v>
+      </c>
+      <c r="J4">
+        <v>170222209</v>
       </c>
       <c r="M4">
-        <v>200605762</v>
-      </c>
-      <c r="O4">
         <v>140626843</v>
       </c>
-      <c r="R4">
-        <v>161229878</v>
+      <c r="N4">
+        <v>150507026</v>
+      </c>
+      <c r="U4">
+        <v>190707285</v>
       </c>
       <c r="X4">
-        <v>210102861</v>
-      </c>
-      <c r="AA4">
-        <v>171102107</v>
-      </c>
-      <c r="AC4">
-        <v>190707285</v>
-      </c>
-      <c r="AG4">
-        <v>190222537</v>
-      </c>
-      <c r="AJ4">
-        <v>190824616</v>
-      </c>
-      <c r="AK4">
-        <v>80724401</v>
-      </c>
-      <c r="AO4">
-        <v>200924284</v>
-      </c>
-      <c r="AR4">
         <v>220525008</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>181215110</v>
+      </c>
+      <c r="AL4">
+        <v>231118720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100704149</v>
+        <v>100414097</v>
       </c>
       <c r="C5">
-        <v>140329295</v>
+        <v>140102887</v>
       </c>
       <c r="D5">
         <v>100330309</v>
       </c>
       <c r="F5">
-        <v>160118060</v>
-      </c>
-      <c r="G5">
-        <v>110213220</v>
-      </c>
-      <c r="M5">
-        <v>211002740</v>
-      </c>
-      <c r="O5">
-        <v>141230142</v>
-      </c>
-      <c r="R5">
-        <v>190511302</v>
-      </c>
-      <c r="AA5">
-        <v>220305481</v>
-      </c>
-      <c r="AC5">
-        <v>221202904</v>
-      </c>
-      <c r="AG5">
-        <v>200219998</v>
-      </c>
-      <c r="AJ5">
-        <v>230328621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+        <v>210516982</v>
+      </c>
+      <c r="J5">
+        <v>171230048</v>
+      </c>
+      <c r="N5">
+        <v>151011136</v>
+      </c>
+      <c r="Z5">
+        <v>190824616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>100724029</v>
+        <v>100511035</v>
       </c>
       <c r="C6">
-        <v>90718762</v>
+        <v>140329295</v>
       </c>
       <c r="D6">
         <v>100410740</v>
       </c>
-      <c r="F6">
-        <v>160303201</v>
-      </c>
-      <c r="G6">
-        <v>120121251</v>
-      </c>
-      <c r="M6">
-        <v>230320884</v>
-      </c>
-      <c r="O6">
-        <v>230701948</v>
-      </c>
-      <c r="R6">
-        <v>91120191</v>
-      </c>
-      <c r="AG6">
-        <v>200716957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>190222537</v>
+      </c>
+      <c r="Z6">
+        <v>230328621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>100728095</v>
+        <v>100517072</v>
+      </c>
+      <c r="C7">
+        <v>90718762</v>
       </c>
       <c r="D7">
         <v>100513879</v>
       </c>
-      <c r="F7">
-        <v>161105417</v>
-      </c>
-      <c r="G7">
-        <v>120130699</v>
-      </c>
-      <c r="AG7">
-        <v>210730207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>200219998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>100804104</v>
+        <v>100604287</v>
       </c>
       <c r="D8">
         <v>100515467</v>
       </c>
-      <c r="F8">
-        <v>200716060</v>
-      </c>
-      <c r="G8">
-        <v>130409960</v>
-      </c>
-      <c r="AG8">
-        <v>231030832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>200605762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100816009</v>
+        <v>100619015</v>
       </c>
       <c r="D9">
         <v>100517639</v>
       </c>
-      <c r="F9">
-        <v>210704684</v>
-      </c>
-      <c r="G9">
-        <v>130604033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>200716957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>100816026</v>
+        <v>100704149</v>
       </c>
       <c r="D10">
-        <v>100522157</v>
-      </c>
-      <c r="F10">
-        <v>230116575</v>
-      </c>
-      <c r="G10">
-        <v>140610548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+        <v>100528075</v>
+      </c>
+      <c r="J10">
+        <v>210730207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>100826957</v>
+        <v>100724029</v>
       </c>
       <c r="D11">
-        <v>100528075</v>
-      </c>
-      <c r="G11">
-        <v>180816088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+        <v>100612726</v>
+      </c>
+      <c r="J11">
+        <v>220111807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>100906576</v>
+        <v>100728095</v>
       </c>
       <c r="D12">
-        <v>100612726</v>
-      </c>
-      <c r="G12">
-        <v>200703970</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+        <v>100629801</v>
+      </c>
+      <c r="J12">
+        <v>231030832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>100918863</v>
+        <v>100804104</v>
       </c>
       <c r="D13">
-        <v>100615083</v>
-      </c>
-      <c r="G13">
-        <v>201216963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+        <v>100701490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>101014175</v>
+        <v>100814351</v>
       </c>
       <c r="D14">
-        <v>100629801</v>
-      </c>
-      <c r="G14">
-        <v>210228277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+        <v>100707032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>101021009</v>
+        <v>100816009</v>
       </c>
       <c r="D15">
-        <v>100701490</v>
-      </c>
-      <c r="G15">
-        <v>210516982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+        <v>100714686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>101023951</v>
+        <v>100816026</v>
       </c>
       <c r="D16">
-        <v>100707032</v>
-      </c>
-      <c r="G16">
-        <v>210826293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100719989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101024486</v>
+        <v>100826957</v>
       </c>
       <c r="D17">
-        <v>100714686</v>
-      </c>
-      <c r="G17">
-        <v>90428552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100722096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>101101744</v>
+        <v>100906576</v>
       </c>
       <c r="D18">
-        <v>100719989</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100820373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101123952</v>
+        <v>100918863</v>
       </c>
       <c r="D19">
-        <v>100722096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100825287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101201418</v>
+        <v>100926595</v>
       </c>
       <c r="D20">
-        <v>100814351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100829876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>110102788</v>
+        <v>101014175</v>
       </c>
       <c r="D21">
-        <v>100820373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100910818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110105877</v>
+        <v>101021009</v>
       </c>
       <c r="D22">
-        <v>100825287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101013412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110318552</v>
+        <v>101023951</v>
       </c>
       <c r="D23">
-        <v>100829876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101016243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110421757</v>
+        <v>101024486</v>
       </c>
       <c r="D24">
-        <v>100910818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101112924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110428338</v>
+        <v>101101744</v>
       </c>
       <c r="D25">
-        <v>101013412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101208498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>110505203</v>
+        <v>101123952</v>
       </c>
       <c r="D26">
-        <v>101016243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101216721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110517573</v>
+        <v>101201418</v>
       </c>
       <c r="D27">
-        <v>101112924</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101225377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>110605183</v>
+        <v>110102788</v>
       </c>
       <c r="D28">
-        <v>101208498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101231067</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>110618366</v>
+        <v>110105877</v>
       </c>
       <c r="D29">
-        <v>101216721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110120666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>110622158</v>
+        <v>110118857</v>
       </c>
       <c r="D30">
-        <v>101225377</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110123804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>110716018</v>
+        <v>110213220</v>
       </c>
       <c r="D31">
-        <v>101231067</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110301214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110730660</v>
+        <v>110318552</v>
       </c>
       <c r="D32">
-        <v>110118857</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110328520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>110813237</v>
+        <v>110421757</v>
       </c>
       <c r="D33">
-        <v>110120666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110407998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>110904124</v>
+        <v>110428338</v>
       </c>
       <c r="D34">
-        <v>110123804</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110521478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>110919634</v>
+        <v>110505203</v>
       </c>
       <c r="D35">
-        <v>110301214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110529034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>110920546</v>
+        <v>110517573</v>
       </c>
       <c r="D36">
-        <v>110328520</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110529262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>111012811</v>
+        <v>110605183</v>
       </c>
       <c r="D37">
-        <v>110407998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110705151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>111015427</v>
+        <v>110618366</v>
       </c>
       <c r="D38">
-        <v>110521478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110721200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>111113410</v>
+        <v>110622158</v>
       </c>
       <c r="D39">
-        <v>110529034</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110729142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>111216389</v>
+        <v>110625881</v>
       </c>
       <c r="D40">
-        <v>110529262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110731465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>111228657</v>
+        <v>110716018</v>
       </c>
       <c r="D41">
-        <v>110625881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110817191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>120118898</v>
+        <v>110717319</v>
       </c>
       <c r="D42">
-        <v>110705151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110819665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>120204054</v>
+        <v>110730660</v>
       </c>
       <c r="D43">
-        <v>110709463</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110824009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>120210650</v>
+        <v>110813237</v>
       </c>
       <c r="D44">
-        <v>110717319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110825102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>120222021</v>
+        <v>110904124</v>
       </c>
       <c r="D45">
-        <v>110721200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110903009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>120226871</v>
+        <v>110904531</v>
       </c>
       <c r="D46">
-        <v>110729142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110909116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>120304061</v>
+        <v>110919634</v>
       </c>
       <c r="D47">
-        <v>110731465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110921912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>120326056</v>
+        <v>110920546</v>
       </c>
       <c r="D48">
-        <v>110817191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111003465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>120412920</v>
+        <v>111012811</v>
       </c>
       <c r="D49">
-        <v>110819665</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111009282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>120522361</v>
+        <v>111015427</v>
       </c>
       <c r="D50">
-        <v>110824009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111012456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>120526303</v>
+        <v>111113410</v>
       </c>
       <c r="D51">
-        <v>110825102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111017657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>120703417</v>
+        <v>111216389</v>
       </c>
       <c r="D52">
-        <v>110903009</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111127810</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>120707800</v>
+        <v>111220486</v>
       </c>
       <c r="D53">
-        <v>110909116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111221739</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>120709883</v>
+        <v>111228657</v>
       </c>
       <c r="D54">
-        <v>110921912</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111222619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>120711115</v>
+        <v>120118898</v>
       </c>
       <c r="D55">
-        <v>111003465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111228453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>120716712</v>
+        <v>120119170</v>
       </c>
       <c r="D56">
-        <v>111009282</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120129580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>120728434</v>
+        <v>120121251</v>
       </c>
       <c r="D57">
-        <v>111012456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120206949</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>120801920</v>
+        <v>120204054</v>
       </c>
       <c r="D58">
-        <v>111017657</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120217808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>120916173</v>
+        <v>120210650</v>
       </c>
       <c r="D59">
-        <v>111024722</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120217904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>121029350</v>
+        <v>120222021</v>
       </c>
       <c r="D60">
-        <v>111127810</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120226447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>121031949</v>
+        <v>120226871</v>
       </c>
       <c r="D61">
-        <v>111220486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120304248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>121113544</v>
+        <v>120304061</v>
       </c>
       <c r="D62">
-        <v>111221739</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120323507</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>121223300</v>
+        <v>120308588</v>
       </c>
       <c r="D63">
-        <v>111222619</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120402669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>121225417</v>
+        <v>120326056</v>
       </c>
       <c r="D64">
-        <v>111228453</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120426090</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>130106995</v>
+        <v>120412920</v>
       </c>
       <c r="D65">
-        <v>120129580</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120427054</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>130131511</v>
+        <v>120522361</v>
       </c>
       <c r="D66">
-        <v>120206949</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120512112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>130214800</v>
+        <v>120526303</v>
       </c>
       <c r="D67">
-        <v>120217808</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120605453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>130215649</v>
+        <v>120703417</v>
       </c>
       <c r="D68">
-        <v>120217904</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120624309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>130218261</v>
+        <v>120707800</v>
       </c>
       <c r="D69">
-        <v>120226447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120625119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>130219775</v>
+        <v>120709883</v>
       </c>
       <c r="D70">
-        <v>120304248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120703726</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>130306991</v>
+        <v>120711115</v>
       </c>
       <c r="D71">
-        <v>120308588</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120811649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>130327350</v>
+        <v>120716712</v>
       </c>
       <c r="D72">
-        <v>120323507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120830297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>130420343</v>
+        <v>120727681</v>
       </c>
       <c r="D73">
-        <v>120328268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120921877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>130425327</v>
+        <v>120728434</v>
       </c>
       <c r="D74">
-        <v>120402669</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120926335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>130509078</v>
+        <v>120801920</v>
       </c>
       <c r="D75">
-        <v>120426090</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121118576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>130523095</v>
+        <v>120806007</v>
       </c>
       <c r="D76">
-        <v>120427054</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121122885</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>130606316</v>
+        <v>120916173</v>
       </c>
       <c r="D77">
-        <v>120512112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121128212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>130606497</v>
+        <v>120919052</v>
       </c>
       <c r="D78">
-        <v>120605453</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130206482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>130628531</v>
+        <v>121029350</v>
       </c>
       <c r="D79">
-        <v>120624309</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130209961</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>130630272</v>
+        <v>121031949</v>
       </c>
       <c r="D80">
-        <v>120625119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130216790</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>130702004</v>
+        <v>121113544</v>
       </c>
       <c r="D81">
-        <v>120703726</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130216927</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>130803419</v>
+        <v>121223300</v>
       </c>
       <c r="D82">
-        <v>120806007</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130220964</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>130815420</v>
+        <v>121225417</v>
       </c>
       <c r="D83">
-        <v>120811649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130228212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>130821674</v>
+        <v>130106995</v>
       </c>
       <c r="D84">
-        <v>120830297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130305486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>130925173</v>
+        <v>130131511</v>
       </c>
       <c r="D85">
-        <v>120921877</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130310840</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>131105087</v>
+        <v>130214800</v>
       </c>
       <c r="D86">
-        <v>120926335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130325203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>131113483</v>
+        <v>130215649</v>
       </c>
       <c r="D87">
-        <v>121118576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130404840</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>131118958</v>
+        <v>130218261</v>
       </c>
       <c r="D88">
-        <v>121122885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130427324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>131122490</v>
+        <v>130219775</v>
       </c>
       <c r="D89">
-        <v>121128212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130502327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>131214705</v>
+        <v>130306991</v>
       </c>
       <c r="D90">
-        <v>130206482</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130504314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>131231198</v>
+        <v>130327350</v>
       </c>
       <c r="D91">
-        <v>130209961</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130518551</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>140206275</v>
+        <v>130331566</v>
       </c>
       <c r="D92">
-        <v>130216790</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130522510</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>140206304</v>
+        <v>130406288</v>
       </c>
       <c r="D93">
-        <v>130216927</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130614997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>140311618</v>
+        <v>130420343</v>
       </c>
       <c r="D94">
-        <v>130220964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130701761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>140323433</v>
+        <v>130425327</v>
       </c>
       <c r="D95">
-        <v>130228212</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130704560</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>140416060</v>
+        <v>130504978</v>
       </c>
       <c r="D96">
-        <v>130305486</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130720582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>140501497</v>
+        <v>130509078</v>
       </c>
       <c r="D97">
-        <v>130310840</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130725527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>140621827</v>
+        <v>130517781</v>
       </c>
       <c r="D98">
-        <v>130325203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130727698</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>140714268</v>
+        <v>130523095</v>
       </c>
       <c r="D99">
-        <v>130404840</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130804023</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>140723499</v>
+        <v>130604033</v>
       </c>
       <c r="D100">
-        <v>130406288</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131014215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>140808038</v>
+        <v>130606316</v>
       </c>
       <c r="D101">
-        <v>130427324</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131031482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>140810782</v>
+        <v>130606497</v>
       </c>
       <c r="D102">
-        <v>130502327</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131108862</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>140817293</v>
+        <v>130623790</v>
       </c>
       <c r="D103">
-        <v>130504314</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131127592</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>140818229</v>
+        <v>130628531</v>
       </c>
       <c r="D104">
-        <v>130504978</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131209547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>140824548</v>
+        <v>130630272</v>
       </c>
       <c r="D105">
-        <v>130518551</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131229277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>140824606</v>
+        <v>130701060</v>
       </c>
       <c r="D106">
-        <v>130522510</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140209313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>140906429</v>
+        <v>130702004</v>
       </c>
       <c r="D107">
-        <v>130609902</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140213807</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>140928100</v>
+        <v>130715906</v>
       </c>
       <c r="D108">
-        <v>130614997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140306146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>141003564</v>
+        <v>130803419</v>
       </c>
       <c r="D109">
-        <v>130701060</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140308710</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>141028455</v>
+        <v>130815420</v>
       </c>
       <c r="D110">
-        <v>130701761</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140508128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>141029134</v>
+        <v>130815660</v>
       </c>
       <c r="D111">
-        <v>130704560</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140512814</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>141215560</v>
+        <v>130821674</v>
       </c>
       <c r="D112">
-        <v>130720582</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140523129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>141222691</v>
+        <v>130925173</v>
       </c>
       <c r="D113">
-        <v>130725527</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140528837</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>150105257</v>
+        <v>131105087</v>
       </c>
       <c r="D114">
-        <v>130727698</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140608713</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>150110433</v>
+        <v>131113483</v>
       </c>
       <c r="D115">
-        <v>130804023</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140701833</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>150126868</v>
+        <v>131118958</v>
       </c>
       <c r="D116">
-        <v>131014215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140716436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>150127589</v>
+        <v>131122490</v>
       </c>
       <c r="D117">
-        <v>131031482</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140827763</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>150202999</v>
+        <v>131214705</v>
       </c>
       <c r="D118">
-        <v>131108862</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140916234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>150220598</v>
+        <v>131231198</v>
       </c>
       <c r="D119">
-        <v>131127592</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141004150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>150228981</v>
+        <v>140206275</v>
       </c>
       <c r="D120">
-        <v>131209547</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141005217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>150309958</v>
+        <v>140206304</v>
       </c>
       <c r="D121">
-        <v>131229277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141016897</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>150323395</v>
+        <v>140311618</v>
       </c>
       <c r="D122">
-        <v>140102887</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141202470</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>150324319</v>
+        <v>140323433</v>
       </c>
       <c r="D123">
-        <v>140209313</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141205763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>150330828</v>
+        <v>140416060</v>
       </c>
       <c r="D124">
-        <v>140213807</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141207800</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>150422703</v>
+        <v>140430716</v>
       </c>
       <c r="D125">
-        <v>140306146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141220252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>150506398</v>
+        <v>140501497</v>
       </c>
       <c r="D126">
-        <v>140308710</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141222298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>150523396</v>
+        <v>140610548</v>
       </c>
       <c r="D127">
-        <v>140508128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141229492</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>150619287</v>
+        <v>140621827</v>
       </c>
       <c r="D128">
-        <v>140512814</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150127398</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>150622393</v>
+        <v>140714268</v>
       </c>
       <c r="D129">
-        <v>140523129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150201574</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>150627183</v>
+        <v>140721336</v>
       </c>
       <c r="D130">
-        <v>140528837</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150210935</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>150729517</v>
+        <v>140723499</v>
       </c>
       <c r="D131">
-        <v>140608713</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150213001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>150817087</v>
+        <v>140808038</v>
       </c>
       <c r="D132">
-        <v>140701833</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150222450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>150828333</v>
+        <v>140810782</v>
       </c>
       <c r="D133">
-        <v>140716436</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150226223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>150902733</v>
+        <v>140817293</v>
       </c>
       <c r="D134">
-        <v>140827763</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150228845</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>150923864</v>
+        <v>140818229</v>
       </c>
       <c r="D135">
-        <v>140901821</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150306993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>151021791</v>
+        <v>140824548</v>
       </c>
       <c r="D136">
-        <v>140916234</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150314205</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>151027166</v>
+        <v>140824606</v>
       </c>
       <c r="D137">
-        <v>141004150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150403913</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>151030999</v>
+        <v>140901821</v>
       </c>
       <c r="D138">
-        <v>141005217</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150426594</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>151228949</v>
+        <v>140906429</v>
       </c>
       <c r="D139">
-        <v>141016897</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150510139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>151231443</v>
+        <v>140928100</v>
       </c>
       <c r="D140">
-        <v>141202470</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150514774</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>160107931</v>
+        <v>141003564</v>
       </c>
       <c r="D141">
-        <v>141205763</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150630223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>160215773</v>
+        <v>141028455</v>
       </c>
       <c r="D142">
-        <v>141207800</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150702998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>160225720</v>
+        <v>141029134</v>
       </c>
       <c r="D143">
-        <v>141220252</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150721242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>160424492</v>
+        <v>141215560</v>
       </c>
       <c r="D144">
-        <v>141222298</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150811849</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>160512199</v>
+        <v>141222691</v>
       </c>
       <c r="D145">
-        <v>141229492</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150819440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>160516237</v>
+        <v>141230142</v>
       </c>
       <c r="D146">
-        <v>150127398</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150824079</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>160720767</v>
+        <v>150105257</v>
       </c>
       <c r="D147">
-        <v>150201574</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150831930</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>160819852</v>
+        <v>150110433</v>
       </c>
       <c r="D148">
-        <v>150210935</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151227072</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>160821857</v>
+        <v>150118409</v>
       </c>
       <c r="D149">
-        <v>150213001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151229285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>160822672</v>
+        <v>150126868</v>
       </c>
       <c r="D150">
-        <v>150222450</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160101030</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>160824598</v>
+        <v>150127589</v>
       </c>
       <c r="D151">
-        <v>150226223</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160113398</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>160912521</v>
+        <v>150202999</v>
       </c>
       <c r="D152">
-        <v>150228845</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160216801</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>161117066</v>
+        <v>150220598</v>
       </c>
       <c r="D153">
-        <v>150306993</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160225809</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>161206064</v>
+        <v>150228981</v>
       </c>
       <c r="D154">
-        <v>150314205</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160227831</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>161220605</v>
+        <v>150309958</v>
       </c>
       <c r="D155">
-        <v>150403913</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160310016</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>170114833</v>
+        <v>150323395</v>
       </c>
       <c r="D156">
-        <v>150426594</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160325291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>170121614</v>
+        <v>150324319</v>
       </c>
       <c r="D157">
-        <v>150430015</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160401065</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>170126480</v>
+        <v>150330828</v>
       </c>
       <c r="D158">
-        <v>150507026</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160421137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>170208553</v>
+        <v>150422703</v>
       </c>
       <c r="D159">
-        <v>150510139</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160422499</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>170208940</v>
+        <v>150506398</v>
       </c>
       <c r="D160">
-        <v>150514774</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160509374</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>170214649</v>
+        <v>150523396</v>
       </c>
       <c r="D161">
-        <v>150630223</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160521385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>170306588</v>
+        <v>150619287</v>
       </c>
       <c r="D162">
-        <v>150702998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160530667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>170308221</v>
+        <v>150622393</v>
       </c>
       <c r="D163">
-        <v>150721242</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160625945</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>170412917</v>
+        <v>150627183</v>
       </c>
       <c r="D164">
-        <v>150811849</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160628579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>170423719</v>
+        <v>150729517</v>
       </c>
       <c r="D165">
-        <v>150819440</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160709826</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>170429799</v>
+        <v>150817087</v>
       </c>
       <c r="D166">
-        <v>150824079</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160717813</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>170511249</v>
+        <v>150828333</v>
       </c>
       <c r="D167">
-        <v>150831930</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160718975</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>170514180</v>
+        <v>150923864</v>
       </c>
       <c r="D168">
-        <v>151011136</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160724444</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>170607946</v>
+        <v>151021791</v>
       </c>
       <c r="D169">
-        <v>151227072</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160731024</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>170730133</v>
+        <v>151027166</v>
       </c>
       <c r="D170">
-        <v>151229285</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160802259</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>170817908</v>
+        <v>151030999</v>
       </c>
       <c r="D171">
-        <v>160101030</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160806584</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>170826819</v>
+        <v>151228949</v>
       </c>
       <c r="D172">
-        <v>160106948</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160815490</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>170831179</v>
+        <v>151231443</v>
       </c>
       <c r="D173">
-        <v>160113398</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160816730</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>170906030</v>
+        <v>160106948</v>
       </c>
       <c r="D174">
-        <v>160216801</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160818198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>170921168</v>
+        <v>160107931</v>
       </c>
       <c r="D175">
-        <v>160225809</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160825799</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>170929513</v>
+        <v>160118060</v>
       </c>
       <c r="D176">
-        <v>160227831</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160905471</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>171010792</v>
+        <v>160215773</v>
       </c>
       <c r="D177">
-        <v>160310016</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160910722</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>171013350</v>
+        <v>160225720</v>
       </c>
       <c r="D178">
-        <v>160325291</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160928825</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>171022885</v>
+        <v>160424492</v>
       </c>
       <c r="D179">
-        <v>160401065</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161001045</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>171108656</v>
+        <v>160512199</v>
       </c>
       <c r="D180">
-        <v>160421137</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161004964</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>171210493</v>
+        <v>160516237</v>
       </c>
       <c r="D181">
-        <v>160422499</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161020759</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>180113116</v>
+        <v>160720767</v>
       </c>
       <c r="D182">
-        <v>160509374</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161106499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>180125891</v>
+        <v>160819852</v>
       </c>
       <c r="D183">
-        <v>160521385</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161109263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>180219482</v>
+        <v>160822672</v>
       </c>
       <c r="D184">
-        <v>160530667</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161218356</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>180307073</v>
+        <v>160824598</v>
       </c>
       <c r="D185">
-        <v>160625945</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170101116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>180404091</v>
+        <v>160912521</v>
       </c>
       <c r="D186">
-        <v>160628579</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170114917</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>180416340</v>
+        <v>161105417</v>
       </c>
       <c r="D187">
-        <v>160709826</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170115743</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>180416924</v>
+        <v>161117066</v>
       </c>
       <c r="D188">
-        <v>160717813</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170127067</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>180504136</v>
+        <v>161206064</v>
       </c>
       <c r="D189">
-        <v>160718975</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170205521</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>180505540</v>
+        <v>161220605</v>
       </c>
       <c r="D190">
-        <v>160724444</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170206453</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>180515814</v>
+        <v>161229878</v>
       </c>
       <c r="D191">
-        <v>160731024</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170208758</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>180605458</v>
+        <v>170114833</v>
       </c>
       <c r="D192">
-        <v>160802259</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170228794</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>180611145</v>
+        <v>170121614</v>
       </c>
       <c r="D193">
-        <v>160806584</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170305256</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>180615462</v>
+        <v>170126480</v>
       </c>
       <c r="D194">
-        <v>160815490</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170402285</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>180618724</v>
+        <v>170207906</v>
       </c>
       <c r="D195">
-        <v>160816730</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170403707</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>180620354</v>
+        <v>170208553</v>
       </c>
       <c r="D196">
-        <v>160818198</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170409112</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>180718201</v>
+        <v>170208940</v>
       </c>
       <c r="D197">
-        <v>160825799</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170416583</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>180722993</v>
+        <v>170209048</v>
       </c>
       <c r="D198">
-        <v>160905471</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170423719</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>180804931</v>
+        <v>170214649</v>
       </c>
       <c r="D199">
-        <v>160910722</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170510217</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>180828790</v>
+        <v>170306588</v>
       </c>
       <c r="D200">
-        <v>160928825</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170522657</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>180910352</v>
+        <v>170308221</v>
       </c>
       <c r="D201">
-        <v>161001045</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170527480</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>180914522</v>
+        <v>170412917</v>
       </c>
       <c r="D202">
-        <v>161004964</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170606968</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>181008269</v>
+        <v>170422343</v>
       </c>
       <c r="D203">
-        <v>161020759</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170607971</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>181008877</v>
+        <v>170429799</v>
       </c>
       <c r="D204">
-        <v>161106499</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170626401</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>181028590</v>
+        <v>170511249</v>
       </c>
       <c r="D205">
-        <v>161109263</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170705115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>181116484</v>
+        <v>170514180</v>
       </c>
       <c r="D206">
-        <v>161218356</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170802638</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>181120265</v>
+        <v>170607946</v>
       </c>
       <c r="D207">
-        <v>170101116</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170803729</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>181222279</v>
+        <v>170610689</v>
       </c>
       <c r="D208">
-        <v>170114917</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170808936</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>190106866</v>
+        <v>170614486</v>
       </c>
       <c r="D209">
-        <v>170115743</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170816599</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>190129539</v>
+        <v>170730133</v>
       </c>
       <c r="D210">
-        <v>170127067</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170825500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>190202069</v>
+        <v>170817908</v>
       </c>
       <c r="D211">
-        <v>170205521</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171106498</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>190215772</v>
+        <v>170826819</v>
       </c>
       <c r="D212">
-        <v>170206453</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171120556</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>190304818</v>
+        <v>170831179</v>
       </c>
       <c r="D213">
-        <v>170208758</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171126235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>190307151</v>
+        <v>170906030</v>
       </c>
       <c r="D214">
-        <v>170209048</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171209671</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>190319353</v>
+        <v>170921168</v>
       </c>
       <c r="D215">
-        <v>170228794</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171211844</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>190324348</v>
+        <v>170929513</v>
       </c>
       <c r="D216">
-        <v>170305256</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171212222</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>190326314</v>
+        <v>171010792</v>
       </c>
       <c r="D217">
-        <v>170402285</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171227000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>190401139</v>
+        <v>171013350</v>
       </c>
       <c r="D218">
-        <v>170403707</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180113011</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>190422284</v>
+        <v>171102107</v>
       </c>
       <c r="D219">
-        <v>170409112</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180119837</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>190519309</v>
+        <v>171108656</v>
       </c>
       <c r="D220">
-        <v>170416583</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180126095</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>190611950</v>
+        <v>171210493</v>
       </c>
       <c r="D221">
-        <v>170422343</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180204109</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>190716917</v>
+        <v>180113116</v>
       </c>
       <c r="D222">
-        <v>170510217</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180218635</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>190719624</v>
+        <v>180125891</v>
       </c>
       <c r="D223">
-        <v>170522657</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180409346</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>190726642</v>
+        <v>180210517</v>
       </c>
       <c r="D224">
-        <v>170527480</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180426549</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>190806675</v>
+        <v>180219482</v>
       </c>
       <c r="D225">
-        <v>170606968</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180427442</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>190828614</v>
+        <v>180305393</v>
       </c>
       <c r="D226">
-        <v>170607971</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180630467</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>190901890</v>
+        <v>180307073</v>
       </c>
       <c r="D227">
-        <v>170626401</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180703876</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>191017391</v>
+        <v>180401846</v>
       </c>
       <c r="D228">
-        <v>170705115</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180703949</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>191019970</v>
+        <v>180404091</v>
       </c>
       <c r="D229">
-        <v>170802638</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180709099</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>191031780</v>
+        <v>180411546</v>
       </c>
       <c r="D230">
-        <v>170803729</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180720213</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>191111547</v>
+        <v>180416340</v>
       </c>
       <c r="D231">
-        <v>170808936</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180720598</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>191220589</v>
+        <v>180504136</v>
       </c>
       <c r="D232">
-        <v>170816599</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180723757</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>191225735</v>
+        <v>180505540</v>
       </c>
       <c r="D233">
-        <v>170825500</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180724807</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>200112525</v>
+        <v>180515814</v>
       </c>
       <c r="D234">
-        <v>171106498</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180728728</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>200120962</v>
+        <v>180611145</v>
       </c>
       <c r="D235">
-        <v>171120556</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180806944</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>200207058</v>
+        <v>180612785</v>
       </c>
       <c r="D236">
-        <v>171126235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180822423</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>200224212</v>
+        <v>180615462</v>
       </c>
       <c r="D237">
-        <v>171209671</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180923931</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>200227306</v>
+        <v>180618724</v>
       </c>
       <c r="D238">
-        <v>171211844</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181014479</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>200303107</v>
+        <v>180620354</v>
       </c>
       <c r="D239">
-        <v>171212222</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181020792</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>200311636</v>
+        <v>180718201</v>
       </c>
       <c r="D240">
-        <v>171227000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181111654</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>200505994</v>
+        <v>180722993</v>
       </c>
       <c r="D241">
-        <v>180113011</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181117663</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>200524211</v>
+        <v>180731891</v>
       </c>
       <c r="D242">
-        <v>180119837</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181119606</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>200528436</v>
+        <v>180816088</v>
       </c>
       <c r="D243">
-        <v>180126095</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181212693</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>200530031</v>
+        <v>180828790</v>
       </c>
       <c r="D244">
-        <v>180204109</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181217665</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>200613229</v>
+        <v>180910352</v>
       </c>
       <c r="D245">
-        <v>180218635</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181222841</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>200714774</v>
+        <v>180914522</v>
       </c>
       <c r="D246">
-        <v>180401846</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181227262</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>200722094</v>
+        <v>181008269</v>
       </c>
       <c r="D247">
-        <v>180409346</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181228120</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>200724213</v>
+        <v>181008877</v>
       </c>
       <c r="D248">
-        <v>180426549</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190110726</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249">
-        <v>200803149</v>
+        <v>181028590</v>
       </c>
       <c r="D249">
-        <v>180427442</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190114873</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250">
-        <v>200901158</v>
+        <v>181116484</v>
       </c>
       <c r="D250">
-        <v>180612785</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190222312</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>200907957</v>
+        <v>181120265</v>
       </c>
       <c r="D251">
-        <v>180630467</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190407788</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252">
-        <v>200909168</v>
+        <v>181222279</v>
       </c>
       <c r="D252">
-        <v>180703876</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190517813</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>200914534</v>
+        <v>190106866</v>
       </c>
       <c r="D253">
-        <v>180703949</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190530430</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254">
-        <v>201104001</v>
+        <v>190129539</v>
       </c>
       <c r="D254">
-        <v>180709099</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190604446</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>201121062</v>
+        <v>190202069</v>
       </c>
       <c r="D255">
-        <v>180720213</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190606080</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>201207977</v>
+        <v>190215772</v>
       </c>
       <c r="D256">
-        <v>180720598</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190610750</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>201223173</v>
+        <v>190218330</v>
       </c>
       <c r="D257">
-        <v>180723757</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190613449</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258">
-        <v>201231550</v>
+        <v>190307151</v>
       </c>
       <c r="D258">
-        <v>180724807</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190619595</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259">
-        <v>210317381</v>
+        <v>190310398</v>
       </c>
       <c r="D259">
-        <v>180728728</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190620507</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260">
-        <v>210324833</v>
+        <v>190319353</v>
       </c>
       <c r="D260">
-        <v>180806944</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190720613</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261">
-        <v>210606945</v>
+        <v>190324348</v>
       </c>
       <c r="D261">
-        <v>180822423</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190731943</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262">
-        <v>210610827</v>
+        <v>190326314</v>
       </c>
       <c r="D262">
-        <v>180923931</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190805106</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263">
-        <v>210807955</v>
+        <v>190401139</v>
       </c>
       <c r="D263">
-        <v>181014479</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190808752</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264">
-        <v>210827424</v>
+        <v>190422284</v>
       </c>
       <c r="D264">
-        <v>181020792</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190923617</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265">
-        <v>210909447</v>
+        <v>190511302</v>
       </c>
       <c r="D265">
-        <v>181111654</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191001279</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266">
-        <v>211018936</v>
+        <v>190519309</v>
       </c>
       <c r="D266">
-        <v>181117663</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191031891</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267">
-        <v>211019250</v>
+        <v>190531840</v>
       </c>
       <c r="D267">
-        <v>181119606</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191125206</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268">
-        <v>211023546</v>
+        <v>190611950</v>
       </c>
       <c r="D268">
-        <v>181212693</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191202867</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269">
-        <v>211102338</v>
+        <v>190716917</v>
       </c>
       <c r="D269">
-        <v>181217665</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191213254</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270">
-        <v>211104782</v>
+        <v>190719624</v>
       </c>
       <c r="D270">
-        <v>181222841</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191227069</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271">
-        <v>211118985</v>
+        <v>190726642</v>
       </c>
       <c r="D271">
-        <v>181227262</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191227723</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272">
-        <v>211130636</v>
+        <v>190727846</v>
       </c>
       <c r="D272">
-        <v>181228120</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200101861</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>211211909</v>
+        <v>190805199</v>
       </c>
       <c r="D273">
-        <v>190110726</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200111633</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274">
-        <v>211216556</v>
+        <v>190806675</v>
       </c>
       <c r="D274">
-        <v>190114873</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200114153</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275">
-        <v>211229930</v>
+        <v>190828614</v>
       </c>
       <c r="D275">
-        <v>190222312</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200125864</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276">
-        <v>220101215</v>
+        <v>190901890</v>
       </c>
       <c r="D276">
-        <v>190407788</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200130417</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277">
-        <v>220111807</v>
+        <v>190919764</v>
       </c>
       <c r="D277">
-        <v>190517813</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200207058</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278">
-        <v>220120619</v>
+        <v>191017391</v>
       </c>
       <c r="D278">
-        <v>190530430</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200211310</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279">
-        <v>220130968</v>
+        <v>191019970</v>
       </c>
       <c r="D279">
-        <v>190604446</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200228291</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280">
-        <v>220209959</v>
+        <v>191027638</v>
       </c>
       <c r="D280">
-        <v>190606080</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200301320</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281">
-        <v>220401429</v>
+        <v>191031780</v>
       </c>
       <c r="D281">
-        <v>190610750</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200313071</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282">
-        <v>220408240</v>
+        <v>191111547</v>
       </c>
       <c r="D282">
-        <v>190613449</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200317028</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>220512211</v>
+        <v>191129141</v>
       </c>
       <c r="D283">
-        <v>190619595</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200323782</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284">
-        <v>220514517</v>
+        <v>191220589</v>
       </c>
       <c r="D284">
-        <v>190620507</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200325620</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285">
-        <v>220608211</v>
+        <v>191225735</v>
       </c>
       <c r="D285">
-        <v>190720613</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200412290</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286">
-        <v>220610295</v>
+        <v>200112525</v>
       </c>
       <c r="D286">
-        <v>190731943</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200412381</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287">
-        <v>220903511</v>
+        <v>200120962</v>
       </c>
       <c r="D287">
-        <v>190805106</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200510445</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288">
-        <v>220915218</v>
+        <v>200224212</v>
       </c>
       <c r="D288">
-        <v>190808752</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200524211</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>220921462</v>
+        <v>200227306</v>
       </c>
       <c r="D289">
-        <v>190923617</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200629535</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>221021388</v>
+        <v>200303107</v>
       </c>
       <c r="D290">
-        <v>191001279</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200826187</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291">
-        <v>221022955</v>
+        <v>200311636</v>
       </c>
       <c r="D291">
-        <v>191031891</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200826923</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292">
-        <v>221023862</v>
+        <v>200505994</v>
       </c>
       <c r="D292">
-        <v>191125206</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200829582</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293">
-        <v>221107058</v>
+        <v>200528436</v>
       </c>
       <c r="D293">
-        <v>191202867</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200919964</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294">
-        <v>221119627</v>
+        <v>200530031</v>
       </c>
       <c r="D294">
-        <v>191213254</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201007123</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295">
-        <v>221126547</v>
+        <v>200613229</v>
       </c>
       <c r="D295">
-        <v>191227069</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201016019</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296">
-        <v>230116205</v>
+        <v>200703970</v>
       </c>
       <c r="D296">
-        <v>191227723</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201019069</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297">
-        <v>230204906</v>
+        <v>200714774</v>
       </c>
       <c r="D297">
-        <v>200101861</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201020732</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298">
-        <v>230217912</v>
+        <v>200722094</v>
       </c>
       <c r="D298">
-        <v>200111633</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201105230</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299">
-        <v>230304265</v>
+        <v>200724213</v>
       </c>
       <c r="D299">
-        <v>200114153</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201116035</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300">
-        <v>230306673</v>
+        <v>200803149</v>
       </c>
       <c r="D300">
-        <v>200125864</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201218177</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301">
-        <v>230409626</v>
+        <v>200901158</v>
       </c>
       <c r="D301">
-        <v>200130417</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201227635</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302">
-        <v>230410476</v>
+        <v>200907957</v>
       </c>
       <c r="D302">
-        <v>200211310</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210104477</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303">
-        <v>230510503</v>
+        <v>200909168</v>
       </c>
       <c r="D303">
-        <v>200228291</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210117458</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304">
-        <v>230510890</v>
+        <v>200914534</v>
       </c>
       <c r="D304">
-        <v>200301320</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210123305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305">
-        <v>230511548</v>
+        <v>201104001</v>
       </c>
       <c r="D305">
-        <v>200313071</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210202841</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306">
-        <v>230517462</v>
+        <v>201121062</v>
       </c>
       <c r="D306">
-        <v>200317028</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210306162</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307">
-        <v>230523474</v>
+        <v>201207977</v>
       </c>
       <c r="D307">
-        <v>200323782</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210308276</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308">
-        <v>230527290</v>
+        <v>201216963</v>
       </c>
       <c r="D308">
-        <v>200325620</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210406949</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309">
-        <v>230613373</v>
+        <v>201223173</v>
       </c>
       <c r="D309">
-        <v>200412290</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210410037</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310">
-        <v>230628849</v>
+        <v>201229639</v>
       </c>
       <c r="D310">
-        <v>200412381</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210411146</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="1">
         <v>309</v>
       </c>
       <c r="B311">
-        <v>230715190</v>
+        <v>201231550</v>
       </c>
       <c r="D311">
-        <v>200510445</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210429658</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="1">
         <v>310</v>
       </c>
       <c r="B312">
-        <v>230727460</v>
+        <v>210102861</v>
       </c>
       <c r="D312">
-        <v>200629535</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210511477</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" s="1">
         <v>311</v>
       </c>
       <c r="B313">
-        <v>230814788</v>
+        <v>210204270</v>
       </c>
       <c r="D313">
-        <v>200826187</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210515623</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="1">
         <v>312</v>
       </c>
       <c r="B314">
-        <v>230817502</v>
+        <v>210228277</v>
       </c>
       <c r="D314">
-        <v>200826923</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210518545</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" s="1">
         <v>313</v>
       </c>
       <c r="B315">
-        <v>230911329</v>
+        <v>210317381</v>
       </c>
       <c r="D315">
-        <v>200829582</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210524208</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" s="1">
         <v>314</v>
       </c>
       <c r="B316">
-        <v>231018521</v>
+        <v>210324833</v>
       </c>
       <c r="D316">
-        <v>200919964</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210528586</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317">
-        <v>231214850</v>
+        <v>210606945</v>
       </c>
       <c r="D317">
-        <v>201007123</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210615892</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318">
-        <v>80723557</v>
+        <v>210610827</v>
       </c>
       <c r="D318">
-        <v>201016019</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210619532</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" s="1">
         <v>317</v>
       </c>
       <c r="B319">
-        <v>80723985</v>
+        <v>210807687</v>
       </c>
       <c r="D319">
-        <v>201019069</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210619999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" s="1">
         <v>318</v>
       </c>
       <c r="B320">
-        <v>80806896</v>
+        <v>210807955</v>
       </c>
       <c r="D320">
-        <v>201020732</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210626991</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321">
-        <v>80816503</v>
+        <v>210826293</v>
       </c>
       <c r="D321">
-        <v>201105230</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210627748</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>320</v>
       </c>
       <c r="B322">
-        <v>80916009</v>
+        <v>210827424</v>
       </c>
       <c r="D322">
-        <v>201116035</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210704815</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="1">
         <v>321</v>
       </c>
       <c r="B323">
-        <v>80925775</v>
+        <v>210909447</v>
       </c>
       <c r="D323">
-        <v>201218177</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210706346</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="1">
         <v>322</v>
       </c>
       <c r="B324">
-        <v>81101532</v>
+        <v>211002740</v>
       </c>
       <c r="D324">
-        <v>201227635</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210706571</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="1">
         <v>323</v>
       </c>
       <c r="B325">
-        <v>81118876</v>
+        <v>211018936</v>
       </c>
       <c r="D325">
-        <v>210104477</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210714331</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="1">
         <v>324</v>
       </c>
       <c r="B326">
-        <v>81121858</v>
+        <v>211019250</v>
       </c>
       <c r="D326">
-        <v>210117458</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210725048</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="1">
         <v>325</v>
       </c>
       <c r="B327">
-        <v>81221681</v>
+        <v>211023546</v>
       </c>
       <c r="D327">
-        <v>210123305</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210801581</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="1">
         <v>326</v>
       </c>
       <c r="B328">
-        <v>81231140</v>
+        <v>211102338</v>
       </c>
       <c r="D328">
-        <v>210202841</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210802839</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="1">
         <v>327</v>
       </c>
       <c r="B329">
-        <v>90101758</v>
+        <v>211104782</v>
       </c>
       <c r="D329">
-        <v>210306162</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210803497</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="1">
         <v>328</v>
       </c>
       <c r="B330">
-        <v>90117640</v>
+        <v>211118985</v>
       </c>
       <c r="D330">
-        <v>210308276</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210812699</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="1">
         <v>329</v>
       </c>
       <c r="B331">
-        <v>90131090</v>
+        <v>211130636</v>
       </c>
       <c r="D331">
-        <v>210406949</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210815100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="1">
         <v>330</v>
       </c>
       <c r="B332">
-        <v>90323002</v>
+        <v>211211909</v>
       </c>
       <c r="D332">
-        <v>210410037</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210822273</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="1">
         <v>331</v>
       </c>
       <c r="B333">
-        <v>90328401</v>
+        <v>211216556</v>
       </c>
       <c r="D333">
-        <v>210411146</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210925056</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="1">
         <v>332</v>
       </c>
       <c r="B334">
-        <v>90425377</v>
+        <v>211217295</v>
       </c>
       <c r="D334">
-        <v>210429658</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210927996</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="1">
         <v>333</v>
       </c>
       <c r="B335">
-        <v>90528516</v>
+        <v>211229930</v>
       </c>
       <c r="D335">
-        <v>210511477</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210928084</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="1">
         <v>334</v>
       </c>
       <c r="B336">
-        <v>90530760</v>
+        <v>220101215</v>
       </c>
       <c r="D336">
-        <v>210515623</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211115688</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" s="1">
         <v>335</v>
       </c>
       <c r="B337">
-        <v>90618353</v>
+        <v>220120619</v>
       </c>
       <c r="D337">
-        <v>210518545</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211116586</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="1">
         <v>336</v>
       </c>
       <c r="B338">
-        <v>90626189</v>
+        <v>220130968</v>
       </c>
       <c r="D338">
-        <v>210524208</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211120962</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" s="1">
         <v>337</v>
       </c>
       <c r="B339">
-        <v>90717034</v>
+        <v>220209959</v>
       </c>
       <c r="D339">
-        <v>210528586</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211204901</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340">
-        <v>90807832</v>
+        <v>220304228</v>
       </c>
       <c r="D340">
-        <v>210615892</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211211549</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="1">
         <v>339</v>
       </c>
       <c r="B341">
-        <v>90813174</v>
+        <v>220401429</v>
       </c>
       <c r="D341">
-        <v>210619532</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220107615</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342">
-        <v>90829672</v>
+        <v>220408240</v>
       </c>
       <c r="D342">
-        <v>210619999</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220107793</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" s="1">
         <v>341</v>
       </c>
       <c r="B343">
-        <v>90831317</v>
+        <v>220511571</v>
       </c>
       <c r="D343">
-        <v>210626991</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220114168</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" s="1">
         <v>342</v>
       </c>
       <c r="B344">
-        <v>91128285</v>
+        <v>220514517</v>
       </c>
       <c r="D344">
-        <v>210627748</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220219473</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" s="1">
         <v>343</v>
       </c>
+      <c r="B345">
+        <v>220608211</v>
+      </c>
       <c r="D345">
-        <v>210704815</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220222098</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" s="1">
         <v>344</v>
       </c>
+      <c r="B346">
+        <v>220610295</v>
+      </c>
       <c r="D346">
-        <v>210706346</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220310122</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="1">
         <v>345</v>
       </c>
+      <c r="B347">
+        <v>220903511</v>
+      </c>
       <c r="D347">
-        <v>210706571</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220320194</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="1">
         <v>346</v>
       </c>
+      <c r="B348">
+        <v>220915218</v>
+      </c>
       <c r="D348">
-        <v>210714331</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220408311</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" s="1">
         <v>347</v>
       </c>
+      <c r="B349">
+        <v>221021388</v>
+      </c>
       <c r="D349">
-        <v>210725048</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220421346</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" s="1">
         <v>348</v>
       </c>
+      <c r="B350">
+        <v>221022955</v>
+      </c>
       <c r="D350">
-        <v>210801581</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220426285</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" s="1">
         <v>349</v>
       </c>
+      <c r="B351">
+        <v>221107058</v>
+      </c>
       <c r="D351">
-        <v>210802839</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220523558</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" s="1">
         <v>350</v>
       </c>
+      <c r="B352">
+        <v>221119627</v>
+      </c>
       <c r="D352">
-        <v>210803497</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220527387</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" s="1">
         <v>351</v>
       </c>
+      <c r="B353">
+        <v>221126547</v>
+      </c>
       <c r="D353">
-        <v>210812699</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220624124</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" s="1">
         <v>352</v>
       </c>
+      <c r="B354">
+        <v>221202904</v>
+      </c>
       <c r="D354">
-        <v>210815100</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220803402</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" s="1">
         <v>353</v>
       </c>
+      <c r="B355">
+        <v>230110649</v>
+      </c>
       <c r="D355">
-        <v>210822273</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220810969</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="1">
         <v>354</v>
       </c>
+      <c r="B356">
+        <v>230116205</v>
+      </c>
       <c r="D356">
-        <v>210925056</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220905478</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" s="1">
         <v>355</v>
       </c>
+      <c r="B357">
+        <v>230116575</v>
+      </c>
       <c r="D357">
-        <v>210927996</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220910242</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="1">
         <v>356</v>
       </c>
+      <c r="B358">
+        <v>230204906</v>
+      </c>
       <c r="D358">
-        <v>210928084</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220921462</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="1">
         <v>357</v>
       </c>
+      <c r="B359">
+        <v>230217912</v>
+      </c>
       <c r="D359">
-        <v>211115688</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220927234</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" s="1">
         <v>358</v>
       </c>
+      <c r="B360">
+        <v>230304265</v>
+      </c>
       <c r="D360">
-        <v>211116586</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221016986</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="1">
         <v>359</v>
       </c>
+      <c r="B361">
+        <v>230306673</v>
+      </c>
       <c r="D361">
-        <v>211120962</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221027173</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" s="1">
         <v>360</v>
       </c>
+      <c r="B362">
+        <v>230320884</v>
+      </c>
       <c r="D362">
-        <v>211204901</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221029045</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" s="1">
         <v>361</v>
       </c>
+      <c r="B363">
+        <v>230409626</v>
+      </c>
       <c r="D363">
-        <v>211211549</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221201517</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" s="1">
         <v>362</v>
       </c>
+      <c r="B364">
+        <v>230410476</v>
+      </c>
       <c r="D364">
-        <v>220107615</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221206516</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" s="1">
         <v>363</v>
       </c>
+      <c r="B365">
+        <v>230510503</v>
+      </c>
       <c r="D365">
-        <v>220107793</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221209243</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" s="1">
         <v>364</v>
       </c>
+      <c r="B366">
+        <v>230510890</v>
+      </c>
       <c r="D366">
-        <v>220114168</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221226698</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="1">
         <v>365</v>
       </c>
+      <c r="B367">
+        <v>230511548</v>
+      </c>
       <c r="D367">
-        <v>220219473</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230209939</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="1">
         <v>366</v>
       </c>
+      <c r="B368">
+        <v>230517462</v>
+      </c>
       <c r="D368">
-        <v>220222098</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230304608</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="1">
         <v>367</v>
       </c>
+      <c r="B369">
+        <v>230523474</v>
+      </c>
       <c r="D369">
-        <v>220310122</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230307656</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" s="1">
         <v>368</v>
       </c>
+      <c r="B370">
+        <v>230527290</v>
+      </c>
       <c r="D370">
-        <v>220320194</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230308564</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" s="1">
         <v>369</v>
       </c>
+      <c r="B371">
+        <v>230613373</v>
+      </c>
       <c r="D371">
-        <v>220408311</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230313485</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" s="1">
         <v>370</v>
       </c>
+      <c r="B372">
+        <v>230701948</v>
+      </c>
       <c r="D372">
-        <v>220421346</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230320150</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="1">
         <v>371</v>
       </c>
+      <c r="B373">
+        <v>230715190</v>
+      </c>
       <c r="D373">
-        <v>220426285</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230321100</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" s="1">
         <v>372</v>
       </c>
+      <c r="B374">
+        <v>230727460</v>
+      </c>
       <c r="D374">
-        <v>220523558</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230321182</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" s="1">
         <v>373</v>
       </c>
+      <c r="B375">
+        <v>230814788</v>
+      </c>
       <c r="D375">
-        <v>220527387</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230402314</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" s="1">
         <v>374</v>
       </c>
+      <c r="B376">
+        <v>230817502</v>
+      </c>
       <c r="D376">
-        <v>220624124</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230405832</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" s="1">
         <v>375</v>
       </c>
+      <c r="B377">
+        <v>230911329</v>
+      </c>
       <c r="D377">
-        <v>220803402</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230426853</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" s="1">
         <v>376</v>
       </c>
+      <c r="B378">
+        <v>231018521</v>
+      </c>
       <c r="D378">
-        <v>220810969</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230506531</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" s="1">
         <v>377</v>
       </c>
+      <c r="B379">
+        <v>231214850</v>
+      </c>
       <c r="D379">
-        <v>220905478</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230512269</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="1">
         <v>378</v>
       </c>
+      <c r="B380">
+        <v>80723557</v>
+      </c>
       <c r="D380">
-        <v>220910242</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230614424</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" s="1">
         <v>379</v>
       </c>
+      <c r="B381">
+        <v>80723985</v>
+      </c>
       <c r="D381">
-        <v>220927234</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230626604</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="1">
         <v>380</v>
       </c>
+      <c r="B382">
+        <v>80724401</v>
+      </c>
       <c r="D382">
-        <v>221016986</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230702527</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" s="1">
         <v>381</v>
       </c>
+      <c r="B383">
+        <v>80806896</v>
+      </c>
       <c r="D383">
-        <v>221027173</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230709706</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="1">
         <v>382</v>
       </c>
+      <c r="B384">
+        <v>80816503</v>
+      </c>
       <c r="D384">
-        <v>221029045</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230709735</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" s="1">
         <v>383</v>
       </c>
+      <c r="B385">
+        <v>80817161</v>
+      </c>
       <c r="D385">
-        <v>221201517</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230815451</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" s="1">
         <v>384</v>
       </c>
+      <c r="B386">
+        <v>80925775</v>
+      </c>
       <c r="D386">
-        <v>221206516</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230827762</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" s="1">
         <v>385</v>
       </c>
+      <c r="B387">
+        <v>81101532</v>
+      </c>
       <c r="D387">
-        <v>221209243</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230906538</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="1">
         <v>386</v>
       </c>
+      <c r="B388">
+        <v>81118876</v>
+      </c>
       <c r="D388">
-        <v>221226698</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230919707</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" s="1">
         <v>387</v>
       </c>
+      <c r="B389">
+        <v>81121858</v>
+      </c>
       <c r="D389">
-        <v>230209939</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231020790</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" s="1">
         <v>388</v>
       </c>
+      <c r="B390">
+        <v>81122520</v>
+      </c>
       <c r="D390">
-        <v>230304608</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231020900</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="1">
         <v>389</v>
       </c>
+      <c r="B391">
+        <v>81221681</v>
+      </c>
       <c r="D391">
-        <v>230307656</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231028173</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" s="1">
         <v>390</v>
       </c>
+      <c r="B392">
+        <v>81231140</v>
+      </c>
       <c r="D392">
-        <v>230308564</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231104075</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" s="1">
         <v>391</v>
       </c>
+      <c r="B393">
+        <v>90101758</v>
+      </c>
       <c r="D393">
-        <v>230313485</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231215408</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" s="1">
         <v>392</v>
       </c>
+      <c r="B394">
+        <v>90102122</v>
+      </c>
       <c r="D394">
-        <v>230320150</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80715950</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" s="1">
         <v>393</v>
       </c>
+      <c r="B395">
+        <v>90117640</v>
+      </c>
       <c r="D395">
-        <v>230321100</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80730786</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" s="1">
         <v>394</v>
       </c>
+      <c r="B396">
+        <v>90131090</v>
+      </c>
       <c r="D396">
-        <v>230321182</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80807993</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" s="1">
         <v>395</v>
       </c>
+      <c r="B397">
+        <v>90323002</v>
+      </c>
       <c r="D397">
-        <v>230402314</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80821332</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" s="1">
         <v>396</v>
       </c>
+      <c r="B398">
+        <v>90328401</v>
+      </c>
       <c r="D398">
-        <v>230405832</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80824909</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" s="1">
         <v>397</v>
       </c>
+      <c r="B399">
+        <v>90425377</v>
+      </c>
       <c r="D399">
-        <v>230426853</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80825593</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" s="1">
         <v>398</v>
       </c>
+      <c r="B400">
+        <v>90428552</v>
+      </c>
       <c r="D400">
-        <v>230506531</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80904886</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" s="1">
         <v>399</v>
       </c>
+      <c r="B401">
+        <v>90516853</v>
+      </c>
       <c r="D401">
-        <v>230512269</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80906212</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" s="1">
         <v>400</v>
       </c>
+      <c r="B402">
+        <v>90528516</v>
+      </c>
       <c r="D402">
-        <v>230614424</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81009140</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" s="1">
         <v>401</v>
       </c>
+      <c r="B403">
+        <v>90530760</v>
+      </c>
       <c r="D403">
-        <v>230626604</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81107321</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" s="1">
         <v>402</v>
       </c>
+      <c r="B404">
+        <v>90618353</v>
+      </c>
       <c r="D404">
-        <v>230702527</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81110601</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" s="1">
         <v>403</v>
       </c>
+      <c r="B405">
+        <v>90626189</v>
+      </c>
       <c r="D405">
-        <v>230709706</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81124060</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" s="1">
         <v>404</v>
       </c>
+      <c r="B406">
+        <v>90717034</v>
+      </c>
       <c r="D406">
-        <v>230709735</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81125496</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" s="1">
         <v>405</v>
       </c>
+      <c r="B407">
+        <v>90720276</v>
+      </c>
       <c r="D407">
-        <v>230815451</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81129161</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" s="1">
         <v>406</v>
       </c>
+      <c r="B408">
+        <v>90807832</v>
+      </c>
       <c r="D408">
-        <v>230827762</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81215784</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" s="1">
         <v>407</v>
       </c>
+      <c r="B409">
+        <v>90813174</v>
+      </c>
       <c r="D409">
-        <v>230906538</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81216531</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" s="1">
         <v>408</v>
       </c>
+      <c r="B410">
+        <v>90815438</v>
+      </c>
       <c r="D410">
-        <v>230919707</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81222204</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" s="1">
         <v>409</v>
       </c>
+      <c r="B411">
+        <v>90828099</v>
+      </c>
       <c r="D411">
-        <v>231020790</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81224887</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" s="1">
         <v>410</v>
       </c>
+      <c r="B412">
+        <v>90829672</v>
+      </c>
       <c r="D412">
-        <v>231020900</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90108020</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" s="1">
         <v>411</v>
       </c>
+      <c r="B413">
+        <v>90831317</v>
+      </c>
       <c r="D413">
-        <v>231028173</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90112729</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" s="1">
         <v>412</v>
       </c>
+      <c r="B414">
+        <v>90902462</v>
+      </c>
       <c r="D414">
-        <v>231104075</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90217206</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" s="1">
         <v>413</v>
       </c>
+      <c r="B415">
+        <v>91030828</v>
+      </c>
       <c r="D415">
-        <v>231215408</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90227772</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" s="1">
         <v>414</v>
       </c>
+      <c r="B416">
+        <v>91031500</v>
+      </c>
       <c r="D416">
-        <v>80715950</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90228204</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" s="1">
         <v>415</v>
       </c>
+      <c r="B417">
+        <v>91120191</v>
+      </c>
       <c r="D417">
-        <v>80730786</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90424592</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" s="1">
         <v>416</v>
       </c>
+      <c r="B418">
+        <v>91128285</v>
+      </c>
       <c r="D418">
-        <v>80807993</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90510016</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" s="1">
         <v>417</v>
       </c>
       <c r="D419">
-        <v>80817161</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90514726</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" s="1">
         <v>418</v>
       </c>
       <c r="D420">
-        <v>80821332</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90524346</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" s="1">
         <v>419</v>
       </c>
       <c r="D421">
-        <v>80824909</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90529564</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="D422">
-        <v>80825593</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90620400</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" s="1">
         <v>421</v>
       </c>
       <c r="D423">
-        <v>80904886</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90626707</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" s="1">
         <v>422</v>
       </c>
       <c r="D424">
-        <v>80906212</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90719063</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="1">
         <v>423</v>
       </c>
       <c r="D425">
-        <v>81009140</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90720710</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" s="1">
         <v>424</v>
       </c>
       <c r="D426">
-        <v>81107321</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90804940</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" s="1">
         <v>425</v>
       </c>
       <c r="D427">
-        <v>81110601</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90809978</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" s="1">
         <v>426</v>
       </c>
       <c r="D428">
-        <v>81124060</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90820027</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" s="1">
         <v>427</v>
       </c>
       <c r="D429">
-        <v>81125496</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90922539</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" s="1">
         <v>428</v>
       </c>
       <c r="D430">
-        <v>81129161</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90926181</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" s="1">
         <v>429</v>
       </c>
       <c r="D431">
-        <v>81215784</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90929190</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" s="1">
         <v>430</v>
       </c>
       <c r="D432">
-        <v>81216531</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91010113</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" s="1">
         <v>431</v>
       </c>
       <c r="D433">
-        <v>81222204</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91012783</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="1">
         <v>432</v>
       </c>
       <c r="D434">
-        <v>81224887</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91101143</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" s="1">
         <v>433</v>
       </c>
       <c r="D435">
-        <v>90102122</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91127976</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" s="1">
         <v>434</v>
       </c>
       <c r="D436">
-        <v>90108020</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91208410</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" s="1">
         <v>435</v>
       </c>
       <c r="D437">
-        <v>90112729</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="D438">
-        <v>90217206</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="D439">
-        <v>90227772</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="D440">
-        <v>90228204</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="D441">
-        <v>90424592</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="D442">
-        <v>90510016</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="D443">
-        <v>90514726</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="D444">
-        <v>90524346</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="D445">
-        <v>90529564</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="D446">
-        <v>90620400</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="D447">
-        <v>90626707</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="D448">
-        <v>90719063</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="D449">
-        <v>90720710</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="D450">
-        <v>90804940</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="D451">
-        <v>90809978</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="D452">
-        <v>90815438</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="D453">
-        <v>90820027</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="1">
-        <v>452</v>
-      </c>
-      <c r="D454">
-        <v>90902462</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" s="1">
-        <v>453</v>
-      </c>
-      <c r="D455">
-        <v>90922539</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="1">
-        <v>454</v>
-      </c>
-      <c r="D456">
-        <v>90926181</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="1">
-        <v>455</v>
-      </c>
-      <c r="D457">
-        <v>90929190</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="1">
-        <v>456</v>
-      </c>
-      <c r="D458">
-        <v>91003191</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="1">
-        <v>457</v>
-      </c>
-      <c r="D459">
-        <v>91010113</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="1">
-        <v>458</v>
-      </c>
-      <c r="D460">
-        <v>91012783</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="1">
-        <v>459</v>
-      </c>
-      <c r="D461">
-        <v>91031500</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="1">
-        <v>460</v>
-      </c>
-      <c r="D462">
-        <v>91101143</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="1">
-        <v>461</v>
-      </c>
-      <c r="D463">
-        <v>91127976</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="1">
-        <v>462</v>
-      </c>
-      <c r="D464">
-        <v>91208410</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="1">
-        <v>463</v>
-      </c>
-      <c r="D465">
         <v>91220442</v>
       </c>
     </row>
